--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="H2">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="I2">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="J2">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.00581500000001</v>
+        <v>113.9910326666667</v>
       </c>
       <c r="N2">
-        <v>165.017445</v>
+        <v>341.973098</v>
       </c>
       <c r="O2">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="P2">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="Q2">
-        <v>625.0901154197667</v>
+        <v>2387.357779709489</v>
       </c>
       <c r="R2">
-        <v>5625.8110387779</v>
+        <v>21486.2200173854</v>
       </c>
       <c r="S2">
-        <v>0.01034328056772765</v>
+        <v>0.02513787044861908</v>
       </c>
       <c r="T2">
-        <v>0.01034328056772765</v>
+        <v>0.02513787044861908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="H3">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="I3">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="J3">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>419.242485</v>
       </c>
       <c r="O3">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="P3">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="Q3">
-        <v>1588.100781329633</v>
+        <v>2926.785217910588</v>
       </c>
       <c r="R3">
-        <v>14292.9070319667</v>
+        <v>26341.06696119529</v>
       </c>
       <c r="S3">
-        <v>0.02627808622455855</v>
+        <v>0.03081781384595091</v>
       </c>
       <c r="T3">
-        <v>0.02627808622455855</v>
+        <v>0.03081781384595091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="H4">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="I4">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="J4">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.81266366666667</v>
+        <v>18.85379466666667</v>
       </c>
       <c r="N4">
-        <v>41.437991</v>
+        <v>56.561384</v>
       </c>
       <c r="O4">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415353</v>
       </c>
       <c r="P4">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415351</v>
       </c>
       <c r="Q4">
-        <v>156.9681228366689</v>
+        <v>394.8622301381608</v>
       </c>
       <c r="R4">
-        <v>1412.71310553002</v>
+        <v>3553.760071243448</v>
       </c>
       <c r="S4">
-        <v>0.002597330040323755</v>
+        <v>0.004157732733077723</v>
       </c>
       <c r="T4">
-        <v>0.002597330040323755</v>
+        <v>0.004157732733077723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="H5">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="I5">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="J5">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04249866666666666</v>
+        <v>0.1522756666666667</v>
       </c>
       <c r="N5">
-        <v>0.127496</v>
+        <v>0.456827</v>
       </c>
       <c r="O5">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="P5">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="Q5">
-        <v>0.4829579645688888</v>
+        <v>3.189167507063222</v>
       </c>
       <c r="R5">
-        <v>4.346621681119999</v>
+        <v>28.702507563569</v>
       </c>
       <c r="S5">
-        <v>7.991439324872615E-06</v>
+        <v>3.358058867961394E-05</v>
       </c>
       <c r="T5">
-        <v>7.991439324872617E-06</v>
+        <v>3.358058867961395E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>110.01276</v>
       </c>
       <c r="I6">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="J6">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55.00581500000001</v>
+        <v>113.9910326666667</v>
       </c>
       <c r="N6">
-        <v>165.017445</v>
+        <v>341.973098</v>
       </c>
       <c r="O6">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="P6">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="Q6">
-        <v>2017.1138413998</v>
+        <v>4180.156039636719</v>
       </c>
       <c r="R6">
-        <v>18154.0245725982</v>
+        <v>37621.40435673048</v>
       </c>
       <c r="S6">
-        <v>0.03337690659951406</v>
+        <v>0.04401527993520408</v>
       </c>
       <c r="T6">
-        <v>0.03337690659951406</v>
+        <v>0.04401527993520409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>110.01276</v>
       </c>
       <c r="I7">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="J7">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>419.242485</v>
       </c>
       <c r="O7">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="P7">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="Q7">
         <v>5124.669209345398</v>
@@ -883,10 +883,10 @@
         <v>46122.02288410859</v>
       </c>
       <c r="S7">
-        <v>0.08479719986207018</v>
+        <v>0.05396060522282837</v>
       </c>
       <c r="T7">
-        <v>0.08479719986207018</v>
+        <v>0.05396060522282838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>110.01276</v>
       </c>
       <c r="I8">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="J8">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.81266366666667</v>
+        <v>18.85379466666667</v>
       </c>
       <c r="N8">
-        <v>41.437991</v>
+        <v>56.561384</v>
       </c>
       <c r="O8">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415353</v>
       </c>
       <c r="P8">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415351</v>
       </c>
       <c r="Q8">
-        <v>506.5230843072399</v>
+        <v>691.3859959177598</v>
       </c>
       <c r="R8">
-        <v>4558.707758765159</v>
+        <v>6222.473963259838</v>
       </c>
       <c r="S8">
-        <v>0.008381368135220515</v>
+        <v>0.007280002914973661</v>
       </c>
       <c r="T8">
-        <v>0.008381368135220515</v>
+        <v>0.00728000291497366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>110.01276</v>
       </c>
       <c r="I9">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="J9">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04249866666666666</v>
+        <v>0.1522756666666667</v>
       </c>
       <c r="N9">
-        <v>0.127496</v>
+        <v>0.456827</v>
       </c>
       <c r="O9">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="P9">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="Q9">
-        <v>1.55846520544</v>
+        <v>5.584088790279999</v>
       </c>
       <c r="R9">
-        <v>14.02618684896</v>
+        <v>50.25679911251999</v>
       </c>
       <c r="S9">
-        <v>2.578771040729448E-05</v>
+        <v>5.8798099629929E-05</v>
       </c>
       <c r="T9">
-        <v>2.578771040729448E-05</v>
+        <v>5.879809962992901E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="H10">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="I10">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="J10">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>55.00581500000001</v>
+        <v>113.9910326666667</v>
       </c>
       <c r="N10">
-        <v>165.017445</v>
+        <v>341.973098</v>
       </c>
       <c r="O10">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="P10">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="Q10">
-        <v>13035.22603986955</v>
+        <v>32400.04468746669</v>
       </c>
       <c r="R10">
-        <v>117317.034358826</v>
+        <v>291600.4021872002</v>
       </c>
       <c r="S10">
-        <v>0.2156921008158637</v>
+        <v>0.3411588044344643</v>
       </c>
       <c r="T10">
-        <v>0.2156921008158637</v>
+        <v>0.3411588044344643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="H11">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="I11">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="J11">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>419.242485</v>
       </c>
       <c r="O11">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="P11">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="Q11">
-        <v>33117.22925713472</v>
+        <v>39720.88836322611</v>
       </c>
       <c r="R11">
-        <v>298055.0633142125</v>
+        <v>357487.995269035</v>
       </c>
       <c r="S11">
-        <v>0.5479862589128877</v>
+        <v>0.4182442004567675</v>
       </c>
       <c r="T11">
-        <v>0.5479862589128877</v>
+        <v>0.4182442004567676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="H12">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="I12">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="J12">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.81266366666667</v>
+        <v>18.85379466666667</v>
       </c>
       <c r="N12">
-        <v>41.437991</v>
+        <v>56.561384</v>
       </c>
       <c r="O12">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415353</v>
       </c>
       <c r="P12">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415351</v>
       </c>
       <c r="Q12">
-        <v>3273.31197815528</v>
+        <v>5358.875829422593</v>
       </c>
       <c r="R12">
-        <v>29459.80780339752</v>
+        <v>48229.88246480333</v>
       </c>
       <c r="S12">
-        <v>0.05416304520033533</v>
+        <v>0.05642670214543788</v>
       </c>
       <c r="T12">
-        <v>0.05416304520033533</v>
+        <v>0.05642670214543787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="H13">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="I13">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="J13">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04249866666666666</v>
+        <v>0.1522756666666667</v>
       </c>
       <c r="N13">
-        <v>0.127496</v>
+        <v>0.456827</v>
       </c>
       <c r="O13">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="P13">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="Q13">
-        <v>10.07129385126044</v>
+        <v>43.28181164250922</v>
       </c>
       <c r="R13">
-        <v>90.64164466134399</v>
+        <v>389.5363047825829</v>
       </c>
       <c r="S13">
-        <v>0.0001666483206403987</v>
+        <v>0.0004557392206137309</v>
       </c>
       <c r="T13">
-        <v>0.0001666483206403987</v>
+        <v>0.0004557392206137309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="H14">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="I14">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="J14">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.00581500000001</v>
+        <v>113.9910326666667</v>
       </c>
       <c r="N14">
-        <v>165.017445</v>
+        <v>341.973098</v>
       </c>
       <c r="O14">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="P14">
-        <v>0.2636796788967746</v>
+        <v>0.417940569685148</v>
       </c>
       <c r="Q14">
-        <v>257.8972755597183</v>
+        <v>724.4938702358384</v>
       </c>
       <c r="R14">
-        <v>2321.075480037465</v>
+        <v>6520.444832122545</v>
       </c>
       <c r="S14">
-        <v>0.004267390913669189</v>
+        <v>0.007628614866860609</v>
       </c>
       <c r="T14">
-        <v>0.004267390913669189</v>
+        <v>0.007628614866860611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="H15">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="I15">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="J15">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>419.242485</v>
       </c>
       <c r="O15">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="P15">
-        <v>0.6699032567416482</v>
+        <v>0.5123749325367024</v>
       </c>
       <c r="Q15">
-        <v>655.2125121097715</v>
+        <v>888.1944582814534</v>
       </c>
       <c r="R15">
-        <v>5896.912608987945</v>
+        <v>7993.750124533081</v>
       </c>
       <c r="S15">
-        <v>0.01084171174213181</v>
+        <v>0.00935231301115559</v>
       </c>
       <c r="T15">
-        <v>0.01084171174213181</v>
+        <v>0.009352313011155591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="H16">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="I16">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="J16">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.81266366666667</v>
+        <v>18.85379466666667</v>
       </c>
       <c r="N16">
-        <v>41.437991</v>
+        <v>56.561384</v>
       </c>
       <c r="O16">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415353</v>
       </c>
       <c r="P16">
-        <v>0.06621333981390533</v>
+        <v>0.06912618913415351</v>
       </c>
       <c r="Q16">
-        <v>64.7613043794741</v>
+        <v>119.8292387316836</v>
       </c>
       <c r="R16">
-        <v>582.8517394152669</v>
+        <v>1078.463148585152</v>
       </c>
       <c r="S16">
-        <v>0.001071596438025723</v>
+        <v>0.001261751340664264</v>
       </c>
       <c r="T16">
-        <v>0.001071596438025723</v>
+        <v>0.001261751340664264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="H17">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="I17">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="J17">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04249866666666666</v>
+        <v>0.1522756666666667</v>
       </c>
       <c r="N17">
-        <v>0.127496</v>
+        <v>0.456827</v>
       </c>
       <c r="O17">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="P17">
-        <v>0.0002037245476720547</v>
+        <v>0.0005583086439961927</v>
       </c>
       <c r="Q17">
-        <v>0.1992569394391111</v>
+        <v>0.9678198758728891</v>
       </c>
       <c r="R17">
-        <v>1.793312454952</v>
+        <v>8.710378882856002</v>
       </c>
       <c r="S17">
-        <v>3.297077299488953E-06</v>
+        <v>1.01907350729189E-05</v>
       </c>
       <c r="T17">
-        <v>3.297077299488953E-06</v>
+        <v>1.01907350729189E-05</v>
       </c>
     </row>
   </sheetData>
